--- a/excel/entertainmentCategories.xlsx
+++ b/excel/entertainmentCategories.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>4-H &amp; FFA (non-animal)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Agriculture, Nature &amp; Our Environment</t>
   </si>
@@ -53,9 +50,6 @@
   </si>
   <si>
     <t>State Fair Buildings</t>
-  </si>
-  <si>
-    <t>Gardens</t>
   </si>
   <si>
     <t>id_cat</t>
@@ -109,8 +103,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B15" totalsRowShown="0">
-  <autoFilter ref="A1:B15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B13" totalsRowShown="0">
+  <autoFilter ref="A1:B13"/>
   <tableColumns count="2">
     <tableColumn id="1" name="id_cat"/>
     <tableColumn id="2" name="category"/>
@@ -404,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -412,15 +406,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -428,7 +422,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -436,7 +430,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -444,7 +438,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -452,7 +446,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -460,7 +454,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -468,7 +462,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -476,7 +470,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>800</v>
+        <v>835</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -484,7 +478,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>835</v>
+        <v>900</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -492,7 +486,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -500,7 +494,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -508,26 +502,10 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>1200</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>1300</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
